--- a/result/processed_classification_result.xlsx
+++ b/result/processed_classification_result.xlsx
@@ -481,7 +481,7 @@
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>humoment</t>
+          <t>shape</t>
         </is>
       </c>
       <c r="K1" s="1" t="n"/>
@@ -497,7 +497,7 @@
       <c r="Q1" s="1" t="n"/>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>texture-humoment</t>
+          <t>texture-shape</t>
         </is>
       </c>
       <c r="S1" s="1" t="n"/>
@@ -505,7 +505,7 @@
       <c r="U1" s="1" t="n"/>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>color-humoment</t>
+          <t>color-shape</t>
         </is>
       </c>
       <c r="W1" s="1" t="n"/>
@@ -513,7 +513,7 @@
       <c r="Y1" s="1" t="n"/>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>texture-color-humoment</t>
+          <t>texture-color-shape</t>
         </is>
       </c>
       <c r="AA1" s="1" t="n"/>
@@ -670,88 +670,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6617818660641178</v>
+        <v>0.5932486733548871</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6940000000000001</v>
+        <v>0.622</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6555473402978652</v>
+        <v>0.580538685613357</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6505</v>
+        <v>0.604</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5948120499278534</v>
+        <v>0.6084982694032386</v>
       </c>
       <c r="G4" t="n">
-        <v>0.628</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6072755488942718</v>
+        <v>0.6151592825421899</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6045</v>
+        <v>0.6165</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6514788551601871</v>
+        <v>0.6698229371633928</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8380000000000001</v>
+        <v>0.9799999999999999</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5412345486117429</v>
+        <v>0.5089641738515409</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5615</v>
+        <v>0.517</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6656453919413698</v>
+        <v>0.6436996983212654</v>
       </c>
       <c r="O4" t="n">
-        <v>0.696</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6848033951113289</v>
+        <v>0.6641647457149111</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.675</v>
+        <v>0.6570000000000001</v>
       </c>
       <c r="R4" t="n">
-        <v>0.671406414491365</v>
+        <v>0.5900637650000664</v>
       </c>
       <c r="S4" t="n">
-        <v>0.706</v>
+        <v>0.6199999999999999</v>
       </c>
       <c r="T4" t="n">
-        <v>0.6625665116607488</v>
+        <v>0.57565129568173</v>
       </c>
       <c r="U4" t="n">
-        <v>0.6605000000000001</v>
+        <v>0.6004999999999999</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6117389959614652</v>
+        <v>0.601833407479299</v>
       </c>
       <c r="W4" t="n">
+        <v>0.6449999999999999</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.6072180444423341</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.6420919044424304</v>
+      </c>
+      <c r="AA4" t="n">
         <v>0.659</v>
       </c>
-      <c r="X4" t="n">
-        <v>0.6080900685901207</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.6125</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.6657246818243066</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.6969999999999998</v>
-      </c>
       <c r="AB4" t="n">
-        <v>0.6807612343271934</v>
+        <v>0.6623320251403092</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.6729999999999999</v>
+        <v>0.655</v>
       </c>
     </row>
     <row r="5">
@@ -761,88 +761,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6580799377626079</v>
+        <v>0.5963164773123009</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.624</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6510028424873597</v>
+        <v>0.5825920123720698</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6475000000000001</v>
+        <v>0.6055</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6606390842262091</v>
+        <v>0.7035724931051273</v>
       </c>
       <c r="G5" t="n">
-        <v>0.725</v>
+        <v>0.765</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6254211324546108</v>
+        <v>0.6674766636113154</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6305000000000001</v>
+        <v>0.675</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6098216461575732</v>
+        <v>0.6525963824887014</v>
       </c>
       <c r="K5" t="n">
-        <v>0.744</v>
+        <v>0.857</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5350906230144894</v>
+        <v>0.5320614704031437</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5464999999999999</v>
+        <v>0.5485</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7057044758732605</v>
+        <v>0.6389404811190171</v>
       </c>
       <c r="O5" t="n">
-        <v>0.732</v>
+        <v>0.652</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7060928571630841</v>
+        <v>0.6481075370780268</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.7125000000000001</v>
+        <v>0.6519999999999999</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6681772169691331</v>
+        <v>0.5964912338594319</v>
       </c>
       <c r="S5" t="n">
-        <v>0.709</v>
+        <v>0.6239999999999999</v>
       </c>
       <c r="T5" t="n">
-        <v>0.6499933636577747</v>
+        <v>0.5829737464980567</v>
       </c>
       <c r="U5" t="n">
-        <v>0.657</v>
+        <v>0.6054999999999999</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6431810511333149</v>
+        <v>0.6832539814881928</v>
       </c>
       <c r="W5" t="n">
-        <v>0.708</v>
+        <v>0.7470000000000001</v>
       </c>
       <c r="X5" t="n">
-        <v>0.6108941495181548</v>
+        <v>0.6493748164999953</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.614</v>
+        <v>0.6525000000000001</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.6936192446119491</v>
+        <v>0.6391019338593521</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.721</v>
+        <v>0.6540000000000001</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.6937724899209925</v>
+        <v>0.6471785098518685</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.7015</v>
+        <v>0.652</v>
       </c>
     </row>
     <row r="6">
@@ -852,88 +852,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6656698491648114</v>
+        <v>0.6036519292314397</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.635</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6609081149115863</v>
+        <v>0.5912403920193882</v>
       </c>
       <c r="E6" t="n">
-        <v>0.658</v>
+        <v>0.6134999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6628038304690967</v>
+        <v>0.7065737934675792</v>
       </c>
       <c r="G6" t="n">
-        <v>0.713</v>
+        <v>0.74</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6349332708007732</v>
+        <v>0.6930043549100147</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6395000000000001</v>
+        <v>0.6944999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6484509885942709</v>
+        <v>0.6580562848705325</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8400000000000001</v>
+        <v>0.885</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5340110659913415</v>
+        <v>0.5272875985295125</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5515</v>
+        <v>0.543</v>
       </c>
       <c r="N6" t="n">
-        <v>0.7227164562698601</v>
+        <v>0.6648943608648168</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7369999999999999</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="P6" t="n">
-        <v>0.7265689252877591</v>
+        <v>0.6811693287624798</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.7335</v>
+        <v>0.68</v>
       </c>
       <c r="R6" t="n">
-        <v>0.6667312161981587</v>
+        <v>0.6056245702751673</v>
       </c>
       <c r="S6" t="n">
-        <v>0.702</v>
+        <v>0.6380000000000001</v>
       </c>
       <c r="T6" t="n">
-        <v>0.6534781434962171</v>
+        <v>0.5927528505075299</v>
       </c>
       <c r="U6" t="n">
-        <v>0.6595000000000001</v>
+        <v>0.6165</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6160823172399035</v>
+        <v>0.6635843691012439</v>
       </c>
       <c r="W6" t="n">
-        <v>0.671</v>
+        <v>0.706</v>
       </c>
       <c r="X6" t="n">
-        <v>0.5982853388466879</v>
+        <v>0.6646969646848756</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.6054999999999999</v>
+        <v>0.653</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.7068955835984712</v>
+        <v>0.655087619539876</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.719</v>
+        <v>0.657</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.7211429743106856</v>
+        <v>0.6761167703753674</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.719</v>
+        <v>0.673</v>
       </c>
     </row>
     <row r="7">
@@ -943,88 +943,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.00198019801980198</v>
+        <v>0.4765152655222479</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001</v>
+        <v>0.488</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1</v>
+        <v>0.473380765413255</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5</v>
+        <v>0.4784999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4544710987316683</v>
+        <v>0.4839927403138217</v>
       </c>
       <c r="G7" t="n">
-        <v>0.482</v>
+        <v>0.499</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4614622793740847</v>
+        <v>0.4805376887905241</v>
       </c>
       <c r="I7" t="n">
-        <v>0.448</v>
+        <v>0.4834999999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5236761504601554</v>
+        <v>0.6183677339517268</v>
       </c>
       <c r="K7" t="n">
-        <v>0.545</v>
+        <v>0.8370000000000001</v>
       </c>
       <c r="L7" t="n">
-        <v>0.528719582101294</v>
+        <v>0.4996152807756056</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5290000000000001</v>
+        <v>0.505</v>
       </c>
       <c r="N7" t="n">
-        <v>0.08510180488892763</v>
+        <v>0.5178702970339001</v>
       </c>
       <c r="O7" t="n">
-        <v>0.05500000000000001</v>
+        <v>0.541</v>
       </c>
       <c r="P7" t="n">
-        <v>0.4644225872167048</v>
+        <v>0.511124862071197</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.499</v>
+        <v>0.5170000000000001</v>
       </c>
       <c r="R7" t="n">
-        <v>0.4071753872993866</v>
+        <v>0.4907741497664189</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3180000000000001</v>
+        <v>0.506</v>
       </c>
       <c r="T7" t="n">
-        <v>0.6011400370103962</v>
+        <v>0.484064698609001</v>
       </c>
       <c r="U7" t="n">
-        <v>0.554</v>
+        <v>0.487</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4331836697696084</v>
+        <v>0.5347117507663307</v>
       </c>
       <c r="W7" t="n">
-        <v>0.431</v>
+        <v>0.5559999999999999</v>
       </c>
       <c r="X7" t="n">
-        <v>0.4590416318024202</v>
+        <v>0.5410911672502035</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.4575</v>
+        <v>0.5475000000000001</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.5563382727661357</v>
+        <v>0.5260243126713876</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.522</v>
+        <v>0.549</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.6053761070775334</v>
+        <v>0.5198667432613931</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.593</v>
+        <v>0.526</v>
       </c>
     </row>
   </sheetData>

--- a/result/processed_classification_result.xlsx
+++ b/result/processed_classification_result.xlsx
@@ -670,88 +670,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5932486733548871</v>
+        <v>0.6941904991429927</v>
       </c>
       <c r="C4" t="n">
-        <v>0.622</v>
+        <v>0.736</v>
       </c>
       <c r="D4" t="n">
-        <v>0.580538685613357</v>
+        <v>0.6704154704990131</v>
       </c>
       <c r="E4" t="n">
-        <v>0.604</v>
+        <v>0.681</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6084982694032386</v>
+        <v>0.5806642707733458</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6499999999999999</v>
+        <v>0.591</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6151592825421899</v>
+        <v>0.5912946686249376</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6165</v>
+        <v>0.5840000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6698229371633928</v>
+        <v>0.6514788551601871</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9799999999999999</v>
+        <v>0.8380000000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5089641738515409</v>
+        <v>0.5412345486117429</v>
       </c>
       <c r="M4" t="n">
-        <v>0.517</v>
+        <v>0.5615</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6436996983212654</v>
+        <v>0.6680543586551942</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.6729999999999999</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6641647457149111</v>
+        <v>0.688965916006648</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6570000000000001</v>
+        <v>0.6765000000000001</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5900637650000664</v>
+        <v>0.6947598556616859</v>
       </c>
       <c r="S4" t="n">
-        <v>0.6199999999999999</v>
+        <v>0.727</v>
       </c>
       <c r="T4" t="n">
-        <v>0.57565129568173</v>
+        <v>0.6793016443676528</v>
       </c>
       <c r="U4" t="n">
-        <v>0.6004999999999999</v>
+        <v>0.6859999999999999</v>
       </c>
       <c r="V4" t="n">
-        <v>0.601833407479299</v>
+        <v>0.5771931644746148</v>
       </c>
       <c r="W4" t="n">
-        <v>0.6449999999999999</v>
+        <v>0.588</v>
       </c>
       <c r="X4" t="n">
-        <v>0.6072180444423341</v>
+        <v>0.5866105649488949</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.61</v>
+        <v>0.5805</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.6420919044424304</v>
+        <v>0.6639549072055098</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.659</v>
+        <v>0.669</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.6623320251403092</v>
+        <v>0.6868777782898029</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.655</v>
+        <v>0.674</v>
       </c>
     </row>
     <row r="5">
@@ -761,88 +761,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5963164773123009</v>
+        <v>0.6739828158237947</v>
       </c>
       <c r="C5" t="n">
-        <v>0.624</v>
+        <v>0.7010000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5825920123720698</v>
+        <v>0.6591649210188556</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6055</v>
+        <v>0.6645</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7035724931051273</v>
+        <v>0.6369963308024753</v>
       </c>
       <c r="G5" t="n">
-        <v>0.765</v>
+        <v>0.626</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6674766636113154</v>
+        <v>0.6772249246268817</v>
       </c>
       <c r="I5" t="n">
-        <v>0.675</v>
+        <v>0.6555</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6525963824887014</v>
+        <v>0.6098216461575732</v>
       </c>
       <c r="K5" t="n">
-        <v>0.857</v>
+        <v>0.744</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5320614704031437</v>
+        <v>0.5350906230144894</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5485</v>
+        <v>0.5464999999999999</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6389404811190171</v>
+        <v>0.649625947523073</v>
       </c>
       <c r="O5" t="n">
         <v>0.652</v>
       </c>
       <c r="P5" t="n">
-        <v>0.6481075370780268</v>
+        <v>0.6764594154676955</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6519999999999999</v>
+        <v>0.6649999999999999</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5964912338594319</v>
+        <v>0.6718838056414631</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6239999999999999</v>
+        <v>0.704</v>
       </c>
       <c r="T5" t="n">
-        <v>0.5829737464980567</v>
+        <v>0.6529666935454165</v>
       </c>
       <c r="U5" t="n">
-        <v>0.6054999999999999</v>
+        <v>0.6609999999999999</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6832539814881928</v>
+        <v>0.6379756763366037</v>
       </c>
       <c r="W5" t="n">
-        <v>0.7470000000000001</v>
+        <v>0.626</v>
       </c>
       <c r="X5" t="n">
-        <v>0.6493748164999953</v>
+        <v>0.6788742392842588</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.6525000000000001</v>
+        <v>0.657</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.6391019338593521</v>
+        <v>0.6480326560393256</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.6540000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.6471785098518685</v>
+        <v>0.6749273978863711</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.652</v>
+        <v>0.6635</v>
       </c>
     </row>
     <row r="6">
@@ -852,88 +852,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6036519292314397</v>
+        <v>0.6855517295295155</v>
       </c>
       <c r="C6" t="n">
-        <v>0.635</v>
+        <v>0.7110000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5912403920193882</v>
+        <v>0.6758777895739467</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6134999999999999</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7065737934675792</v>
+        <v>0.6394481958969979</v>
       </c>
       <c r="G6" t="n">
-        <v>0.74</v>
+        <v>0.628</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6930043549100147</v>
+        <v>0.6721551013536382</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6944999999999999</v>
+        <v>0.6529999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6580562848705325</v>
+        <v>0.6484509885942709</v>
       </c>
       <c r="K6" t="n">
-        <v>0.885</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5272875985295125</v>
+        <v>0.5340110659913415</v>
       </c>
       <c r="M6" t="n">
-        <v>0.543</v>
+        <v>0.5515</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6648943608648168</v>
+        <v>0.6613982280863564</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.665</v>
       </c>
       <c r="P6" t="n">
-        <v>0.6811693287624798</v>
+        <v>0.6877253822548266</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.68</v>
+        <v>0.674</v>
       </c>
       <c r="R6" t="n">
-        <v>0.6056245702751673</v>
+        <v>0.6906265504642914</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6380000000000001</v>
+        <v>0.708</v>
       </c>
       <c r="T6" t="n">
-        <v>0.5927528505075299</v>
+        <v>0.6905939282052941</v>
       </c>
       <c r="U6" t="n">
-        <v>0.6165</v>
+        <v>0.6900000000000001</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6635843691012439</v>
+        <v>0.643734078671087</v>
       </c>
       <c r="W6" t="n">
-        <v>0.706</v>
+        <v>0.636</v>
       </c>
       <c r="X6" t="n">
-        <v>0.6646969646848756</v>
+        <v>0.6724398638045888</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.653</v>
+        <v>0.6545000000000001</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.655087619539876</v>
+        <v>0.6631759228750086</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.657</v>
+        <v>0.667</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.6761167703753674</v>
+        <v>0.6899740816968076</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.673</v>
+        <v>0.6765</v>
       </c>
     </row>
     <row r="7">
@@ -943,88 +943,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4765152655222479</v>
+        <v>0.6098077193257156</v>
       </c>
       <c r="C7" t="n">
-        <v>0.488</v>
+        <v>0.7020000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.473380765413255</v>
+        <v>0.5473492129556523</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4784999999999999</v>
+        <v>0.5569999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4839927403138217</v>
+        <v>0.4996096323036269</v>
       </c>
       <c r="G7" t="n">
-        <v>0.499</v>
+        <v>0.512</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4805376887905241</v>
+        <v>0.5040707999692915</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4834999999999999</v>
+        <v>0.5039999999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6183677339517268</v>
+        <v>0.5236761504601554</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8370000000000001</v>
+        <v>0.545</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4996152807756056</v>
+        <v>0.528719582101294</v>
       </c>
       <c r="M7" t="n">
-        <v>0.505</v>
+        <v>0.5290000000000001</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5178702970339001</v>
+        <v>0.5929986052169279</v>
       </c>
       <c r="O7" t="n">
-        <v>0.541</v>
+        <v>0.6339999999999999</v>
       </c>
       <c r="P7" t="n">
-        <v>0.511124862071197</v>
+        <v>0.5975920509060326</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5170000000000001</v>
+        <v>0.5845</v>
       </c>
       <c r="R7" t="n">
-        <v>0.4907741497664189</v>
+        <v>0.618869654927676</v>
       </c>
       <c r="S7" t="n">
-        <v>0.506</v>
+        <v>0.705</v>
       </c>
       <c r="T7" t="n">
-        <v>0.484064698609001</v>
+        <v>0.5605612444297328</v>
       </c>
       <c r="U7" t="n">
-        <v>0.487</v>
+        <v>0.5725</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5347117507663307</v>
+        <v>0.4990582438048378</v>
       </c>
       <c r="W7" t="n">
-        <v>0.5559999999999999</v>
+        <v>0.511</v>
       </c>
       <c r="X7" t="n">
-        <v>0.5410911672502035</v>
+        <v>0.5039555347435449</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.5475000000000001</v>
+        <v>0.5039999999999999</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.5260243126713876</v>
+        <v>0.5967142004039145</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.549</v>
+        <v>0.635</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.5198667432613931</v>
+        <v>0.6024647237952518</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.526</v>
+        <v>0.5894999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/result/processed_classification_result.xlsx
+++ b/result/processed_classification_result.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,60 +465,12 @@
       <c r="A1" s="1" t="inlineStr"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>texture</t>
+          <t>resnet</t>
         </is>
       </c>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
       <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>color</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="n"/>
-      <c r="I1" s="1" t="n"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>shape</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="n"/>
-      <c r="L1" s="1" t="n"/>
-      <c r="M1" s="1" t="n"/>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>texture-color</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="n"/>
-      <c r="P1" s="1" t="n"/>
-      <c r="Q1" s="1" t="n"/>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>texture-shape</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="n"/>
-      <c r="T1" s="1" t="n"/>
-      <c r="U1" s="1" t="n"/>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>color-shape</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="n"/>
-      <c r="X1" s="1" t="n"/>
-      <c r="Y1" s="1" t="n"/>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>texture-color-shape</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="n"/>
-      <c r="AB1" s="1" t="n"/>
-      <c r="AC1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr"/>
@@ -542,126 +494,6 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>f1</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>recall</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>precision</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>f1</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>recall</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>precision</t>
-        </is>
-      </c>
-      <c r="M2" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="N2" s="1" t="inlineStr">
-        <is>
-          <t>f1</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>recall</t>
-        </is>
-      </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>precision</t>
-        </is>
-      </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="R2" s="1" t="inlineStr">
-        <is>
-          <t>f1</t>
-        </is>
-      </c>
-      <c r="S2" s="1" t="inlineStr">
-        <is>
-          <t>recall</t>
-        </is>
-      </c>
-      <c r="T2" s="1" t="inlineStr">
-        <is>
-          <t>precision</t>
-        </is>
-      </c>
-      <c r="U2" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="V2" s="1" t="inlineStr">
-        <is>
-          <t>f1</t>
-        </is>
-      </c>
-      <c r="W2" s="1" t="inlineStr">
-        <is>
-          <t>recall</t>
-        </is>
-      </c>
-      <c r="X2" s="1" t="inlineStr">
-        <is>
-          <t>precision</t>
-        </is>
-      </c>
-      <c r="Y2" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="Z2" s="1" t="inlineStr">
-        <is>
-          <t>f1</t>
-        </is>
-      </c>
-      <c r="AA2" s="1" t="inlineStr">
-        <is>
-          <t>recall</t>
-        </is>
-      </c>
-      <c r="AB2" s="1" t="inlineStr">
-        <is>
-          <t>precision</t>
-        </is>
-      </c>
-      <c r="AC2" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -670,88 +502,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6941904991429927</v>
+        <v>0.7490279419717033</v>
       </c>
       <c r="C4" t="n">
-        <v>0.736</v>
+        <v>0.753</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6704154704990131</v>
+        <v>0.7650694244341388</v>
       </c>
       <c r="E4" t="n">
-        <v>0.681</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.5806642707733458</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.591</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.5912946686249376</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.5840000000000001</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6514788551601871</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.8380000000000001</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.5412345486117429</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.5615</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.6680543586551942</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.6729999999999999</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.688965916006648</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.6765000000000001</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.6947598556616859</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.6793016443676528</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.6859999999999999</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.5771931644746148</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.588</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.5866105649488949</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.5805</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.6639549072055098</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.669</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.6868777782898029</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.674</v>
+        <v>0.752</v>
       </c>
     </row>
     <row r="5">
@@ -761,88 +521,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6739828158237947</v>
+        <v>0.7469773153810131</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7010000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6591649210188556</v>
+        <v>0.7667583071754679</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6645</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.6369963308024753</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.626</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.6772249246268817</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.6555</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6098216461575732</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.744</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.5350906230144894</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.5464999999999999</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.649625947523073</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.652</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.6764594154676955</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.6649999999999999</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.6718838056414631</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.704</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.6529666935454165</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.6609999999999999</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.6379756763366037</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.626</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.6788742392842588</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0.657</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.6480326560393256</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0.6749273978863711</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0.6635</v>
+        <v>0.7529999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -852,88 +540,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6855517295295155</v>
+        <v>0.65194862071176</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7110000000000001</v>
+        <v>0.6010000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6758777895739467</v>
+        <v>0.7715929744203557</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6799999999999999</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.6394481958969979</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.628</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.6721551013536382</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.6529999999999999</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.6484509885942709</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.8400000000000001</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.5340110659913415</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.5515</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.6613982280863564</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.665</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.6877253822548266</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.674</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.6906265504642914</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.708</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.6905939282052941</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.6900000000000001</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.643734078671087</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.636</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.6724398638045888</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.6545000000000001</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.6631759228750086</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0.6899740816968076</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0.6765</v>
+        <v>0.704</v>
       </c>
     </row>
     <row r="7">
@@ -943,99 +559,21 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6098077193257156</v>
+        <v>0.7390227809176129</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7020000000000001</v>
+        <v>0.745</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5473492129556523</v>
+        <v>0.7789489333900395</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5569999999999999</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.4996096323036269</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.512</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.5040707999692915</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.5039999999999999</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5236761504601554</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.545</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.528719582101294</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.5290000000000001</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.5929986052169279</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.6339999999999999</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.5975920509060326</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.5845</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.618869654927676</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.705</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.5605612444297328</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.5725</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.4990582438048378</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.511</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.5039555347435449</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.5039999999999999</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.5967142004039145</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.635</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0.6024647237952518</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0.5894999999999999</v>
+        <v>0.7495000000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="J1:M1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
